--- a/analyses/tables/foliar_inorganics.xlsx
+++ b/analyses/tables/foliar_inorganics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicksmith/Documents/Git/mdi_pitchpine/analyses/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risa/Git/mdi_pitchpine/analyses/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{66FF1E16-4AE6-9248-A300-D24CA5590B9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4AB5DC-B3E1-B44D-A094-BA7ABC4AF51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9620" yWindow="3900" windowWidth="26440" windowHeight="15440"/>
+    <workbookView xWindow="2360" yWindow="2560" windowWidth="26440" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foliar_inorganics" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Df</t>
-  </si>
-  <si>
-    <t>Residuals</t>
   </si>
   <si>
     <t>Elevation</t>
@@ -35,12 +32,6 @@
   </si>
   <si>
     <t>Elevation*Fire</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>P</t>
   </si>
   <si>
     <t>Foliar Ca</t>
@@ -60,15 +51,21 @@
   <si>
     <t>Foliar Zn</t>
   </si>
+  <si>
+    <t>Chisq</t>
+  </si>
+  <si>
+    <t>Pr(&gt;Chisq)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,13 +200,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -392,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -507,21 +497,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -569,8 +544,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -925,252 +900,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N6"/>
+      <selection activeCell="C3" sqref="C3:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>13.0258571574967</v>
+        <v>13.3023556745772</v>
       </c>
       <c r="D3" s="2">
-        <v>9.26746971938538E-4</v>
+        <v>2.6507287021465802E-4</v>
       </c>
       <c r="E3" s="2">
-        <v>7.9566161158353299E-2</v>
+        <v>1.04839330274344</v>
       </c>
       <c r="F3" s="2">
-        <v>0.77950152257425498</v>
+        <v>0.305877414032447</v>
       </c>
       <c r="G3" s="2">
-        <v>1.8750949465979101</v>
+        <v>3.1584260394666899</v>
       </c>
       <c r="H3" s="2">
-        <v>0.179375247048114</v>
+        <v>7.5535978058448E-2</v>
       </c>
       <c r="I3" s="2">
-        <v>3.02419372432098</v>
+        <v>1.7789007890601598E-2</v>
       </c>
       <c r="J3" s="2">
-        <v>9.0577113513922405E-2</v>
+        <v>0.89389646820717195</v>
       </c>
       <c r="K3" s="2">
-        <v>0.126566057214617</v>
+        <v>0.34068541593773699</v>
       </c>
       <c r="L3" s="2">
-        <v>0.72409568510518696</v>
+        <v>0.55943385381388</v>
       </c>
       <c r="M3" s="2">
-        <v>6.7569908828563401</v>
+        <v>0.26682303049882899</v>
       </c>
       <c r="N3" s="2">
-        <v>1.3454649390484699E-2</v>
+        <v>0.60547091622308002</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>2.97485752758254</v>
+        <v>0.84346711131406205</v>
       </c>
       <c r="D4" s="2">
-        <v>9.3144869463407803E-2</v>
+        <v>0.35840705428702302</v>
       </c>
       <c r="E4" s="2">
-        <v>8.77131231868632</v>
+        <v>0.30897720231542197</v>
       </c>
       <c r="F4" s="2">
-        <v>5.3907017385502898E-3</v>
+        <v>0.57830849402261597</v>
       </c>
       <c r="G4" s="2">
-        <v>6.00053462812701</v>
+        <v>4.0713022193868502</v>
       </c>
       <c r="H4" s="2">
-        <v>1.92977226852265E-2</v>
+        <v>4.3617636226494803E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>0.151314402065229</v>
+        <v>1.6031399198128599E-2</v>
       </c>
       <c r="J4" s="2">
-        <v>0.69957381083331305</v>
+        <v>0.89924499614360898</v>
       </c>
       <c r="K4" s="2">
-        <v>7.3347397940643599E-2</v>
+        <v>2.06622884549072E-2</v>
       </c>
       <c r="L4" s="2">
-        <v>0.78807071331767897</v>
+        <v>0.88570275981497404</v>
       </c>
       <c r="M4" s="2">
-        <v>0.70804765278211701</v>
+        <v>4.09532076440046E-3</v>
       </c>
       <c r="N4" s="2">
-        <v>0.40564768283154201</v>
+        <v>0.94897445231980004</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>1.0067868534051401</v>
+        <v>8.7781093423662998E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>0.32237083070836797</v>
+        <v>0.76701721838815495</v>
       </c>
       <c r="E5" s="2">
-        <v>0.138246712936822</v>
+        <v>0.53514472949201197</v>
       </c>
       <c r="F5" s="2">
-        <v>0.712209921686905</v>
+        <v>0.46445190295720401</v>
       </c>
       <c r="G5" s="2">
-        <v>6.4828465854881596</v>
+        <v>4.8631328939585696</v>
       </c>
       <c r="H5" s="2">
-        <v>1.53149912884237E-2</v>
+        <v>2.7436471553291701E-2</v>
       </c>
       <c r="I5" s="2">
-        <v>1.1780533032759899E-3</v>
+        <v>1.10892792619334</v>
       </c>
       <c r="J5" s="2">
-        <v>0.97280936470698198</v>
+        <v>0.29231511234282198</v>
       </c>
       <c r="K5" s="2">
-        <v>0.37083310327470798</v>
+        <v>0.187329294967573</v>
       </c>
       <c r="L5" s="2">
-        <v>0.54637440798654902</v>
+        <v>0.66514878004127798</v>
       </c>
       <c r="M5" s="2">
-        <v>4.0285646717688302</v>
+        <v>1.7938115815173299</v>
       </c>
       <c r="N5" s="2">
-        <v>5.2289492804187002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+        <v>0.180462448624684</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/analyses/tables/foliar_inorganics.xlsx
+++ b/analyses/tables/foliar_inorganics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risa/Git/mdi_pitchpine/analyses/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4AB5DC-B3E1-B44D-A094-BA7ABC4AF51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB7D8C8-9490-3748-8448-034A56FFD6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="2560" windowWidth="26440" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="7020" windowWidth="26440" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foliar_inorganics" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,10 @@
     <t>Foliar Zn</t>
   </si>
   <si>
-    <t>Chisq</t>
+    <t>F value</t>
   </si>
   <si>
-    <t>Pr(&gt;Chisq)</t>
+    <t>Pr(&gt;F)</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -901,26 +901,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:N5"/>
+      <selection activeCell="B3" sqref="B3:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -929,184 +940,209 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>13.3023556745772</v>
+        <v>0.393432052299655</v>
       </c>
       <c r="D3" s="2">
-        <v>2.6507287021465802E-4</v>
+        <v>0.53445914915960002</v>
       </c>
       <c r="E3" s="2">
-        <v>1.04839330274344</v>
+        <v>15.395543682281099</v>
       </c>
       <c r="F3" s="2">
-        <v>0.305877414032447</v>
+        <v>3.7643470054839E-4</v>
       </c>
       <c r="G3" s="2">
-        <v>3.1584260394666899</v>
+        <v>5.0421541853429002</v>
       </c>
       <c r="H3" s="2">
-        <v>7.5535978058448E-2</v>
+        <v>3.0971468293082199E-2</v>
       </c>
       <c r="I3" s="2">
-        <v>1.7789007890601598E-2</v>
+        <v>2.2008065094654699</v>
       </c>
       <c r="J3" s="2">
-        <v>0.89389646820717195</v>
+        <v>0.14664152421811799</v>
       </c>
       <c r="K3" s="2">
-        <v>0.34068541593773699</v>
+        <v>0.52306070483649802</v>
       </c>
       <c r="L3" s="2">
-        <v>0.55943385381388</v>
+        <v>0.47421212115269201</v>
       </c>
       <c r="M3" s="2">
-        <v>0.26682303049882899</v>
+        <v>8.6448011482767395</v>
       </c>
       <c r="N3" s="2">
-        <v>0.60547091622308002</v>
-      </c>
+        <v>5.6994402119397297E-3</v>
+      </c>
+      <c r="Q3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>0.84346711131406205</v>
+        <v>2.06622884549123E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.35840705428702302</v>
+        <v>0.88650439792548597</v>
       </c>
       <c r="E4" s="2">
-        <v>0.30897720231542197</v>
+        <v>0.84346711131402996</v>
       </c>
       <c r="F4" s="2">
-        <v>0.57830849402261597</v>
+        <v>0.36451967354065001</v>
       </c>
       <c r="G4" s="2">
-        <v>4.0713022193868502</v>
+        <v>4.0713022193872197</v>
       </c>
       <c r="H4" s="2">
-        <v>4.3617636226494803E-2</v>
+        <v>5.1118765151568303E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>1.6031399198128599E-2</v>
+        <v>0.50743651494991704</v>
       </c>
       <c r="J4" s="2">
-        <v>0.89924499614360898</v>
+        <v>0.48084228182956701</v>
       </c>
       <c r="K4" s="2">
-        <v>2.06622884549072E-2</v>
+        <v>8.3087746824512507</v>
       </c>
       <c r="L4" s="2">
-        <v>0.88570275981497404</v>
+        <v>6.6151852462613204E-3</v>
       </c>
       <c r="M4" s="2">
-        <v>4.09532076440046E-3</v>
+        <v>4.9917117291888198E-2</v>
       </c>
       <c r="N4" s="2">
-        <v>0.94897445231980004</v>
-      </c>
+        <v>0.82447055219054399</v>
+      </c>
+      <c r="Q4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>8.7781093423662998E-2</v>
+        <v>0.18732929496756801</v>
       </c>
       <c r="D5" s="2">
-        <v>0.76701721838815495</v>
+        <v>0.66773082076970203</v>
       </c>
       <c r="E5" s="2">
-        <v>0.53514472949201197</v>
+        <v>8.7781093423662401E-2</v>
       </c>
       <c r="F5" s="2">
-        <v>0.46445190295720401</v>
+        <v>0.76871974341302896</v>
       </c>
       <c r="G5" s="2">
         <v>4.8631328939585696</v>
       </c>
       <c r="H5" s="2">
-        <v>2.7436471553291701E-2</v>
+        <v>3.3908823002517297E-2</v>
       </c>
       <c r="I5" s="2">
-        <v>1.10892792619334</v>
+        <v>0.37738809959042102</v>
       </c>
       <c r="J5" s="2">
-        <v>0.29231511234282198</v>
+        <v>0.54286761945151596</v>
       </c>
       <c r="K5" s="2">
-        <v>0.187329294967573</v>
+        <v>0.40734886206753901</v>
       </c>
       <c r="L5" s="2">
-        <v>0.66514878004127798</v>
+        <v>0.52735767296589697</v>
       </c>
       <c r="M5" s="2">
-        <v>1.7938115815173299</v>
+        <v>1.4576766015388301</v>
       </c>
       <c r="N5" s="2">
-        <v>0.180462448624684</v>
-      </c>
+        <v>0.23517307257084</v>
+      </c>
+      <c r="Q5"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/analyses/tables/foliar_inorganics.xlsx
+++ b/analyses/tables/foliar_inorganics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/risa/Git/mdi_pitchpine/analyses/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicksmith/Documents/Git/mdi_pitchpine/analyses/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB7D8C8-9490-3748-8448-034A56FFD6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB3577C-9AAA-7A45-82CA-6DCD0412CE9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="7020" windowWidth="26440" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12360" yWindow="4680" windowWidth="26440" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foliar_inorganics" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,6 +199,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -542,10 +562,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -904,7 +928,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:N6"/>
+      <selection activeCell="C3" sqref="C3:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -927,217 +951,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.393432052299655</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.53445914915960002</v>
-      </c>
-      <c r="E3" s="2">
-        <v>15.395543682281099</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3.7643470054839E-4</v>
-      </c>
-      <c r="G3" s="2">
-        <v>5.0421541853429002</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3.0971468293082199E-2</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2.2008065094654699</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.14664152421811799</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.52306070483649802</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.47421212115269201</v>
-      </c>
-      <c r="M3" s="2">
-        <v>8.6448011482767395</v>
-      </c>
-      <c r="N3" s="2">
-        <v>5.6994402119397297E-3</v>
+      <c r="C3" s="4">
+        <v>0.340685415937731</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.56307330090952301</v>
+      </c>
+      <c r="E3" s="4">
+        <v>13.3023556745772</v>
+      </c>
+      <c r="F3" s="5">
+        <v>8.32068963804563E-4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3.1584260394667001</v>
+      </c>
+      <c r="H3" s="6">
+        <v>8.3986210076284096E-2</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2.55728030960727</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.11852831769885699</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.17702628083368E-2</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.91420879634516194</v>
+      </c>
+      <c r="M3" s="4">
+        <v>8.0066657142972204</v>
+      </c>
+      <c r="N3" s="5">
+        <v>7.5738263619777001E-3</v>
       </c>
       <c r="Q3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>2.06622884549123E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.88650439792548597</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.84346711131402996</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.36451967354065001</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4.0713022193872197</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5.1118765151568303E-2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.50743651494991704</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.48084228182956701</v>
-      </c>
-      <c r="K4" s="2">
-        <v>8.3087746824512507</v>
-      </c>
-      <c r="L4" s="2">
-        <v>6.6151852462613204E-3</v>
-      </c>
-      <c r="M4" s="2">
-        <v>4.9917117291888198E-2</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.82447055219054399</v>
+      <c r="C4" s="4">
+        <v>2.06622884549072E-2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.88650439792549995</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.84346711131405905</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.36451967354064202</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4.0713022193868502</v>
+      </c>
+      <c r="H4" s="6">
+        <v>5.1118765151578101E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.50743651494988196</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.480842281829582</v>
+      </c>
+      <c r="K4" s="4">
+        <v>8.3087746824510997</v>
+      </c>
+      <c r="L4" s="5">
+        <v>6.6151852462617696E-3</v>
+      </c>
+      <c r="M4" s="4">
+        <v>4.9917117291866202E-2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.82447055219058196</v>
       </c>
       <c r="Q4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.18732929496756801</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.66773082076970203</v>
-      </c>
-      <c r="E5" s="2">
-        <v>8.7781093423662401E-2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.76871974341302896</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="C5" s="4">
+        <v>0.18732929496756601</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.66773082076970403</v>
+      </c>
+      <c r="E5" s="4">
+        <v>8.7781093423665302E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.76871974341302496</v>
+      </c>
+      <c r="G5" s="4">
         <v>4.8631328939585696</v>
       </c>
-      <c r="H5" s="2">
-        <v>3.3908823002517297E-2</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.37738809959042102</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.54286761945151596</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="H5" s="4">
+        <v>3.3908823002517199E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.37738809959042402</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.54286761945151496</v>
+      </c>
+      <c r="K5" s="4">
         <v>0.40734886206753901</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="4">
         <v>0.52735767296589697</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="4">
         <v>1.4576766015388301</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="4">
         <v>0.23517307257084</v>
       </c>
       <c r="Q5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3">
         <v>36</v>
       </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
